--- a/log_carga_noticias.xlsx
+++ b/log_carga_noticias.xlsx
@@ -503,7 +503,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Commandantís seasonís greetings</t>
+          <t>Commandant’s season’s greetings</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
